--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Nome</t>
   </si>
@@ -71,9 +71,6 @@
     <t>PIC18F45K22</t>
   </si>
   <si>
-    <t>P4 32x16 RGB Dual Color LED Dot Matrix Unit Board</t>
-  </si>
-  <si>
     <t>Sure Electronics</t>
   </si>
   <si>
@@ -95,15 +92,9 @@
     <t>Prezzo /u</t>
   </si>
   <si>
-    <t>CD4052BE</t>
-  </si>
-  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>173-47-388</t>
-  </si>
-  <si>
     <t>Presa Cinch / RCA</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>Trimmer / Potenziometro</t>
-  </si>
-  <si>
     <t>Condensatore</t>
   </si>
   <si>
@@ -141,6 +129,27 @@
   </si>
   <si>
     <t>Microchip</t>
+  </si>
+  <si>
+    <t>CD4051</t>
+  </si>
+  <si>
+    <t>173-47-370</t>
+  </si>
+  <si>
+    <t>DE-DP14112V201</t>
+  </si>
+  <si>
+    <t>Trimmer 25K</t>
+  </si>
+  <si>
+    <t>164-34-468</t>
+  </si>
+  <si>
+    <t>67WR25KLF</t>
+  </si>
+  <si>
+    <t>BI Technologies</t>
   </si>
 </sst>
 </file>
@@ -213,14 +222,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -247,12 +250,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -541,453 +538,453 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="5">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <f>G7*F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" ref="H8:H19" si="0">G8*F8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>1.47</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G19" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <f>SUM(H7:H20)</f>
-        <v>1.8399999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="11"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="11"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="11"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="11"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="11"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="11"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="11"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Nome</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Resistenza</t>
   </si>
   <si>
-    <t>TL071</t>
-  </si>
-  <si>
     <t>Microchip</t>
   </si>
   <si>
@@ -140,16 +137,13 @@
     <t>DE-DP14112V201</t>
   </si>
   <si>
-    <t>Trimmer 25K</t>
-  </si>
-  <si>
-    <t>164-34-468</t>
-  </si>
-  <si>
-    <t>67WR25KLF</t>
-  </si>
-  <si>
-    <t>BI Technologies</t>
+    <t>AD826AN</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>173-22-437</t>
   </si>
 </sst>
 </file>
@@ -535,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -550,7 +544,7 @@
     <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -610,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -634,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -652,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" ref="H8:H19" si="0">G8*F8</f>
+        <f t="shared" ref="H8:H18" si="0">G8*F8</f>
         <v>0</v>
       </c>
     </row>
@@ -661,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
@@ -670,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -742,26 +736,26 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,43 +918,19 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1.83</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="0"/>
-        <v>1.83</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="9"/>
+      <c r="G20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H7:H19)</f>
+        <v>11.09</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="9">
-        <f>SUM(H7:H20)</f>
-        <v>4.0199999999999996</v>
-      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H22" s="9"/>
@@ -983,9 +953,7 @@
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="9"/>
-    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1086,6 @@
     <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
